--- a/Excel/镇魂街/物品/item.xlsx
+++ b/Excel/镇魂街/物品/item.xlsx
@@ -1,27 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\DataConfig\物品\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\DataConfig\物品\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22240710-C8E2-46CD-85F1-1A8B8351536F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="221">
   <si>
     <t>标识</t>
   </si>
@@ -651,12 +659,56 @@
   </si>
   <si>
     <t>head_lftl_1102021</t>
+  </si>
+  <si>
+    <t>参考阴阳师中勾玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽技能升级所需经验值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场里战斗奖励的货币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取竞技场宝箱所用的货币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考阴阳师中魂玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱道升级材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器配件及其升级材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器升级材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>羁绊之力升级材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于专属武器强化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -737,7 +789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,6 +807,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1059,15 +1114,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E41"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="P40" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="U50" sqref="U50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
@@ -1077,9 +1136,10 @@
     <col min="14" max="14" width="17.125" customWidth="1"/>
     <col min="15" max="16" width="13.5" customWidth="1"/>
     <col min="17" max="17" width="18.375" customWidth="1"/>
+    <col min="18" max="18" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1185,7 +1245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1238,7 +1298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1291,7 +1351,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -1312,7 +1372,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -1363,7 +1423,7 @@
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1384,7 +1444,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
         <v>1401001</v>
@@ -1431,8 +1491,11 @@
       <c r="Q8" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R8" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
         <v>1401002</v>
@@ -1480,7 +1543,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
         <v>1401003</v>
@@ -1528,7 +1591,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
         <v>1401004</v>
@@ -1576,7 +1639,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
         <v>1401005</v>
@@ -1623,8 +1686,11 @@
       <c r="Q12" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R12" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
         <v>1401006</v>
@@ -1672,7 +1738,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
         <v>1401007</v>
@@ -1720,7 +1786,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
         <v>1401008</v>
@@ -1767,8 +1833,11 @@
       <c r="Q15" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R15" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
         <v>1401009</v>
@@ -1815,8 +1884,11 @@
       <c r="Q16" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R16" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
         <v>1401010</v>
@@ -1863,8 +1935,11 @@
       <c r="Q17" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R17" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="5">
         <v>1601001</v>
@@ -1912,7 +1987,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
         <v>1602001</v>
@@ -1960,7 +2035,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
         <v>1603001</v>
@@ -2009,8 +2084,11 @@
       <c r="Q20" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R20" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="5">
         <v>1603002</v>
@@ -2059,8 +2137,11 @@
       <c r="Q21" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R21" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="5">
         <v>1603003</v>
@@ -2109,8 +2190,11 @@
       <c r="Q22" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R22" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
         <v>1603004</v>
@@ -2159,8 +2243,11 @@
       <c r="Q23" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R23" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
         <v>1603005</v>
@@ -2209,8 +2296,11 @@
       <c r="Q24" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R24" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
         <v>1603006</v>
@@ -2259,8 +2349,11 @@
       <c r="Q25" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R25" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
         <v>1603007</v>
@@ -2309,8 +2402,11 @@
       <c r="Q26" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R26" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="5">
         <v>1603008</v>
@@ -2359,8 +2455,11 @@
       <c r="Q27" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R27" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
         <v>1603009</v>
@@ -2409,8 +2508,11 @@
       <c r="Q28" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R28" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
         <v>1603010</v>
@@ -2459,8 +2561,11 @@
       <c r="Q29" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R29" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="5">
         <v>1603011</v>
@@ -2509,8 +2614,11 @@
       <c r="Q30" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R30" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="5">
         <v>1603012</v>
@@ -2559,8 +2667,11 @@
       <c r="Q31" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R31" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="5">
         <v>1603013</v>
@@ -2609,8 +2720,11 @@
       <c r="Q32" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R32" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="5">
         <v>1603014</v>
@@ -2659,8 +2773,11 @@
       <c r="Q33" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R33" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="5">
         <v>1603015</v>
@@ -2709,8 +2826,11 @@
       <c r="Q34" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R34" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="5">
         <v>1603016</v>
@@ -2759,8 +2879,11 @@
       <c r="Q35" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R35" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="5">
         <v>1603017</v>
@@ -2809,8 +2932,11 @@
       <c r="Q36" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R36" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="5">
         <v>1603018</v>
@@ -2859,8 +2985,11 @@
       <c r="Q37" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R37" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="5">
         <v>1603019</v>
@@ -2909,8 +3038,11 @@
       <c r="Q38" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R38" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="5">
         <v>1603020</v>
@@ -2959,8 +3091,11 @@
       <c r="Q39" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R39" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="5">
         <v>1603021</v>
@@ -3009,8 +3144,11 @@
       <c r="Q40" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R40" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="5">
         <v>1603022</v>
@@ -3059,8 +3197,11 @@
       <c r="Q41" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R41" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="5">
         <v>1604001</v>
@@ -3110,7 +3251,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="5">
         <v>1604002</v>
@@ -3160,7 +3301,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="5">
         <v>1606001</v>
@@ -3209,8 +3350,11 @@
       <c r="Q44" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R44" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="5">
         <v>1606002</v>
@@ -3259,8 +3403,11 @@
       <c r="Q45" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R45" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="5">
         <v>1606003</v>
@@ -3309,8 +3456,11 @@
       <c r="Q46" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R46" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="5">
         <v>1606004</v>
@@ -3359,8 +3509,11 @@
       <c r="Q47" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R47" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="5">
         <v>1606005</v>
@@ -3409,8 +3562,11 @@
       <c r="Q48" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R48" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="5">
         <v>1606006</v>
@@ -3459,8 +3615,11 @@
       <c r="Q49" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R49" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
         <v>1606007</v>
@@ -3509,8 +3668,11 @@
       <c r="Q50" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R50" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="5">
         <v>1606008</v>
@@ -3559,8 +3721,11 @@
       <c r="Q51" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R51" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="5">
         <v>1606009</v>
@@ -3609,8 +3774,11 @@
       <c r="Q52" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R52" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="5">
         <v>1606010</v>
@@ -3659,8 +3827,11 @@
       <c r="Q53" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R53" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="5">
         <v>1606011</v>
@@ -3709,8 +3880,11 @@
       <c r="Q54" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R54" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="5">
         <v>1606012</v>
@@ -3759,8 +3933,11 @@
       <c r="Q55" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R55" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="5">
         <v>1606013</v>
@@ -3809,8 +3986,11 @@
       <c r="Q56" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R56" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="5">
         <v>1606014</v>
@@ -3859,8 +4039,11 @@
       <c r="Q57" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R57" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="5">
         <v>1606015</v>
@@ -3909,8 +4092,11 @@
       <c r="Q58" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R58" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="5">
         <v>1606016</v>
@@ -3959,8 +4145,11 @@
       <c r="Q59" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R59" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="5">
         <v>1606017</v>
@@ -4009,8 +4198,11 @@
       <c r="Q60" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R60" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="5">
         <v>1606018</v>
@@ -4059,8 +4251,11 @@
       <c r="Q61" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R61" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="5">
         <v>1606019</v>
@@ -4109,8 +4304,11 @@
       <c r="Q62" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R62" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="5">
         <v>1606020</v>
@@ -4159,8 +4357,11 @@
       <c r="Q63" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R63" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="5">
         <v>1606021</v>
@@ -4209,8 +4410,11 @@
       <c r="Q64" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R64" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="5">
         <v>1606022</v>
@@ -4259,8 +4463,11 @@
       <c r="Q65" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R65" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="5">
         <v>1606023</v>
@@ -4309,8 +4516,11 @@
       <c r="Q66" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R66" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="5">
         <v>1606024</v>
@@ -4359,8 +4569,11 @@
       <c r="Q67" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R67" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="5">
         <v>1606025</v>
@@ -4409,8 +4622,11 @@
       <c r="Q68" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R68" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="5">
         <v>1606026</v>
@@ -4459,8 +4675,11 @@
       <c r="Q69" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R69" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="5">
         <v>1606027</v>
@@ -4509,8 +4728,11 @@
       <c r="Q70" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R70" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="5">
         <v>1606028</v>
@@ -4559,8 +4781,11 @@
       <c r="Q71" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R71" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="5">
         <v>1606029</v>
@@ -4609,8 +4834,11 @@
       <c r="Q72" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R72" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="5">
         <v>1606030</v>
@@ -4659,8 +4887,11 @@
       <c r="Q73" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R73" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="5">
         <v>1606031</v>
@@ -4709,8 +4940,11 @@
       <c r="Q74" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R74" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
       <c r="B75" s="5">
         <v>1606032</v>
@@ -4759,8 +4993,11 @@
       <c r="Q75" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R75" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
       <c r="B76" s="5">
         <v>1607001</v>
@@ -4809,8 +5046,11 @@
       <c r="Q76" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R76" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="B77" s="5">
         <v>1607002</v>
@@ -4859,8 +5099,11 @@
       <c r="Q77" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R77" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="5">
         <v>1607003</v>
@@ -4909,8 +5152,11 @@
       <c r="Q78" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R78" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="5">
         <v>1607004</v>
@@ -4959,8 +5205,11 @@
       <c r="Q79" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R79" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="5">
         <v>1607005</v>
@@ -5009,8 +5258,11 @@
       <c r="Q80" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R80" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="5">
         <v>1607006</v>
@@ -5059,8 +5311,11 @@
       <c r="Q81" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R81" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="5">
         <v>1607007</v>
@@ -5109,8 +5364,11 @@
       <c r="Q82" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R82" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="B83" s="5">
         <v>1607008</v>
@@ -5159,8 +5417,11 @@
       <c r="Q83" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R83" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="5">
         <v>1607009</v>
@@ -5209,8 +5470,11 @@
       <c r="Q84" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R84" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="5">
         <v>1608001</v>
@@ -5260,7 +5524,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
       <c r="B86" s="5">
         <v>1608002</v>
@@ -5310,7 +5574,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="5">
         <v>1608003</v>
@@ -5360,7 +5624,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="B88" s="5">
         <v>1608004</v>
@@ -5410,7 +5674,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="5">
         <v>1608005</v>
@@ -5460,7 +5724,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="5">
         <v>1608006</v>
@@ -5510,7 +5774,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
       <c r="B91" s="5">
         <v>1608007</v>
@@ -5560,7 +5824,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="B92" s="5">
         <v>1608008</v>
@@ -5610,7 +5874,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="B93" s="5">
         <v>1608009</v>
@@ -5660,7 +5924,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="5">
         <v>1608010</v>
@@ -5710,7 +5974,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
       <c r="B95" s="5">
         <v>1608011</v>
@@ -5760,7 +6024,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
       <c r="B96" s="5">
         <v>1608012</v>
@@ -5810,7 +6074,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
       <c r="B97" s="5">
         <v>1608013</v>
@@ -5860,7 +6124,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A98" s="1"/>
       <c r="B98" s="5">
         <v>1608014</v>
@@ -5910,7 +6174,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
       <c r="B99" s="5">
         <v>1608015</v>
@@ -5960,7 +6224,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
       <c r="B100" s="5">
         <v>1609001</v>
@@ -6009,8 +6273,11 @@
       <c r="Q100" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R100" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="5">
         <v>1609002</v>
@@ -6059,8 +6326,11 @@
       <c r="Q101" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R101" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
       <c r="B102" s="5">
         <v>1609003</v>
@@ -6109,8 +6379,11 @@
       <c r="Q102" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R102" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
       <c r="B103" s="5">
         <v>1605001</v>
@@ -6161,8 +6434,11 @@
       <c r="Q103" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R103" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
       <c r="B104" s="5">
         <v>1605002</v>
@@ -6213,8 +6489,11 @@
       <c r="Q104" s="5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R104" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
       <c r="B105" s="5">
         <v>1701001</v>
@@ -6263,7 +6542,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A106" s="1"/>
       <c r="B106" s="5">
         <v>1701002</v>
@@ -6312,7 +6591,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
       <c r="B107" s="5">
         <v>1701003</v>
@@ -6361,7 +6640,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
       <c r="B108" s="5">
         <v>1701004</v>
@@ -6410,7 +6689,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
       <c r="B109" s="5">
         <v>1701005</v>
@@ -6459,7 +6738,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="5">
         <v>1701006</v>
@@ -6508,7 +6787,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
       <c r="B111" s="5">
         <v>1701007</v>
@@ -6557,7 +6836,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
       <c r="B112" s="5">
         <v>1701008</v>
@@ -7986,7 +8265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8000,7 +8279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
